--- a/1-Excel_Playground_Starter.xlsx
+++ b/1-Excel_Playground_Starter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee6678ed8f8e4149/Desktop/Boot camp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_79800E530DF6EE7C2DDA7C133E6F23C10BAF778D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7426BBC3-F974-4FA0-A4E0-40E3EB7605B9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_79800E530DF6EE7C2DDA7C133E6F23C10BAF778D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B08E4D-5A33-4C0E-8EC2-897987A26637}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,10 @@
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <f>MEDIAN(F2:F10)</f>
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
